--- a/userId_password.xlsx
+++ b/userId_password.xlsx
@@ -471,7 +471,7 @@
   <dimension ref="E11:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
